--- a/Update-DocumentsP3/Traceability link matrix.xlsx
+++ b/Update-DocumentsP3/Traceability link matrix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83F85072-C37A-465A-8C0C-D3EE83970447}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7554CC4B-AEF8-4D0C-93C1-FAF8BFB90DF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>Use_Cases\Classes</t>
   </si>
@@ -142,12 +142,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,9 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,21 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.109375" customWidth="1"/>
     <col min="14" max="14" width="8.44140625" customWidth="1"/>
   </cols>
@@ -518,7 +532,7 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -629,22 +643,22 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -664,6 +678,9 @@
       <c r="H10" t="s">
         <v>28</v>
       </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -672,19 +689,19 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K11" t="s">
@@ -693,7 +710,7 @@
       <c r="M11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -704,7 +721,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
@@ -721,10 +738,10 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -744,6 +761,9 @@
       <c r="M14" t="s">
         <v>28</v>
       </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -761,6 +781,9 @@
       <c r="M15" t="s">
         <v>28</v>
       </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -809,7 +832,7 @@
       <c r="H18" t="s">
         <v>28</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -820,9 +843,13 @@
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <customSheetViews>
